--- a/Excel/FirstGround.xlsx
+++ b/Excel/FirstGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3101B20-7E8A-416D-A8B5-8917FA274789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BD94C-A7CA-412D-ABB5-579E31CA58C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="1536" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:OP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5384,7 +5384,7 @@
         <v>101</v>
       </c>
       <c r="AO9" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AP9" s="2">
         <v>103</v>
